--- a/프로젝트_진행차트.xlsx
+++ b/프로젝트_진행차트.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588615D1-E3A6-4A3E-BA2A-9F5DF3B745D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" tabRatio="415"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="11" r:id="rId1"/>
@@ -15,7 +16,7 @@
     <definedName name="스크롤증가값">Gantt!$J$4</definedName>
     <definedName name="오늘​​" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="125">
   <si>
     <t>이 워크시트에 Gantt 차트를 만듭니다.
 셀 B1에 이 프로젝트의 제목을 입력합니다. 
@@ -338,10 +340,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>박성원</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>추승윤</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -442,10 +440,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>박성원</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>2.3.1.1.4</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -514,10 +508,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>추승윤</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>자동 먹이 급여기 제작</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -526,23 +516,28 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>추승윤</t>
+    <t>이성협</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>이지민</t>
+    <t>오경석</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>박성원</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="d"/>
     <numFmt numFmtId="178" formatCode="#,##0_);\(#,##0\)"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1363,9 +1358,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="날짜" xfId="9"/>
+    <cellStyle name="날짜" xfId="9" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="백분율" xfId="2" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="숨겨진텍스트" xfId="3"/>
+    <cellStyle name="숨겨진텍스트" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="쉼표" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="쉼표 [0]" xfId="10" builtinId="6" customBuiltin="1"/>
     <cellStyle name="제목" xfId="5" builtinId="15" customBuiltin="1"/>
@@ -2030,12 +2025,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Gantt 테이블 스타일" pivot="0" count="3">
+    <tableStyle name="Gantt 테이블 스타일" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="40"/>
       <tableStyleElement type="headerRow" dxfId="39"/>
       <tableStyleElement type="firstRowStripe" dxfId="38"/>
     </tableStyle>
-    <tableStyle name="할일목록" pivot="0" count="9">
+    <tableStyle name="할일목록" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="37"/>
       <tableStyleElement type="headerRow" dxfId="36"/>
       <tableStyleElement type="totalRow" dxfId="35"/>
@@ -2138,7 +2133,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$J$4" horiz="1" max="65" page="2" val="0"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="39" fmlaLink="$J$4" horiz="1" max="65" page="2" val="56"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2197,8 +2192,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="중요 시점" displayName="중요_시점" ref="F7:L48" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
-  <autoFilter ref="F7:L48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="중요 시점" displayName="중요_시점" ref="F7:L48" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="F7:L48" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -2207,13 +2202,13 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" name="중요 시점 설명" dataDxfId="6"/>
-    <tableColumn id="2" name="범주" dataDxfId="5"/>
-    <tableColumn id="3" name="담당자" dataDxfId="4"/>
-    <tableColumn id="4" name="진행 상황" dataDxfId="3"/>
-    <tableColumn id="5" name="시작일" dataDxfId="2" dataCellStyle="날짜"/>
-    <tableColumn id="6" name="일 수" dataDxfId="1"/>
-    <tableColumn id="7" name="종료일" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="중요 시점 설명" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="범주" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="담당자" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="진행 상황" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="시작일" dataDxfId="2" dataCellStyle="날짜"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="일 수" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="종료일" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Gantt 테이블 스타일" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2486,17 +2481,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BP51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A40" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="2.75" style="25" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="25" customWidth="1"/>
@@ -2516,7 +2511,7 @@
     <col min="75" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" ht="30" customHeight="1">
+    <row r="1" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2534,7 +2529,7 @@
       <c r="M1" s="6"/>
       <c r="N1" s="7"/>
     </row>
-    <row r="2" spans="1:68" ht="30" customHeight="1">
+    <row r="2" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2577,7 +2572,7 @@
       <c r="AI2" s="67"/>
       <c r="AJ2" s="67"/>
     </row>
-    <row r="3" spans="1:68" ht="30" customHeight="1">
+    <row r="3" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -2597,7 +2592,7 @@
       <c r="K3" s="72"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="1:68" ht="30" customHeight="1">
+    <row r="4" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -2610,7 +2605,7 @@
       </c>
       <c r="I4" s="69"/>
       <c r="J4" s="13">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="M4" s="14" t="s">
         <v>25</v>
@@ -2623,7 +2618,7 @@
       <c r="S4" s="14"/>
       <c r="T4" s="14" t="str">
         <f ca="1">IF(TEXT(T5,"m월")=M4,"",TEXT(T5,"m월"))</f>
-        <v/>
+        <v>11월</v>
       </c>
       <c r="U4" s="14"/>
       <c r="V4" s="14"/>
@@ -2663,7 +2658,7 @@
       <c r="AU4" s="14"/>
       <c r="AV4" s="14" t="str">
         <f ca="1">IF(OR(TEXT(AV5,"m월")=AO4,TEXT(AV5,"m월")=AH4,TEXT(AV5,"m월")=AA4,TEXT(AV5,"m월")=T4),"",TEXT(AV5,"m월"))</f>
-        <v>10월</v>
+        <v>12월</v>
       </c>
       <c r="AW4" s="14"/>
       <c r="AX4" s="14"/>
@@ -2692,7 +2687,7 @@
       <c r="BO4" s="14"/>
       <c r="BP4" s="14"/>
     </row>
-    <row r="5" spans="1:68" ht="15" customHeight="1">
+    <row r="5" spans="1:68" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2709,230 +2704,230 @@
       <c r="L5" s="70"/>
       <c r="M5" s="15">
         <f ca="1">IFERROR(Project_Start+스크롤증가값,TODAY())</f>
-        <v>43710</v>
+        <v>43766</v>
       </c>
       <c r="N5" s="16">
         <f ca="1">M5+1</f>
-        <v>43711</v>
+        <v>43767</v>
       </c>
       <c r="O5" s="16">
         <f t="shared" ref="O5:BB5" ca="1" si="0">N5+1</f>
-        <v>43712</v>
+        <v>43768</v>
       </c>
       <c r="P5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43713</v>
+        <v>43769</v>
       </c>
       <c r="Q5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43714</v>
+        <v>43770</v>
       </c>
       <c r="R5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43715</v>
+        <v>43771</v>
       </c>
       <c r="S5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43716</v>
+        <v>43772</v>
       </c>
       <c r="T5" s="15">
         <f ca="1">S5+1</f>
-        <v>43717</v>
+        <v>43773</v>
       </c>
       <c r="U5" s="16">
         <f ca="1">T5+1</f>
-        <v>43718</v>
+        <v>43774</v>
       </c>
       <c r="V5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43719</v>
+        <v>43775</v>
       </c>
       <c r="W5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43720</v>
+        <v>43776</v>
       </c>
       <c r="X5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43721</v>
+        <v>43777</v>
       </c>
       <c r="Y5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43722</v>
+        <v>43778</v>
       </c>
       <c r="Z5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43723</v>
+        <v>43779</v>
       </c>
       <c r="AA5" s="15">
         <f ca="1">Z5+1</f>
-        <v>43724</v>
+        <v>43780</v>
       </c>
       <c r="AB5" s="16">
         <f ca="1">AA5+1</f>
-        <v>43725</v>
+        <v>43781</v>
       </c>
       <c r="AC5" s="55">
         <f t="shared" ca="1" si="0"/>
-        <v>43726</v>
+        <v>43782</v>
       </c>
       <c r="AD5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43727</v>
+        <v>43783</v>
       </c>
       <c r="AE5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43728</v>
+        <v>43784</v>
       </c>
       <c r="AF5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43729</v>
+        <v>43785</v>
       </c>
       <c r="AG5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43730</v>
+        <v>43786</v>
       </c>
       <c r="AH5" s="15">
         <f ca="1">AG5+1</f>
-        <v>43731</v>
+        <v>43787</v>
       </c>
       <c r="AI5" s="16">
         <f ca="1">AH5+1</f>
-        <v>43732</v>
+        <v>43788</v>
       </c>
       <c r="AJ5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43733</v>
+        <v>43789</v>
       </c>
       <c r="AK5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43734</v>
+        <v>43790</v>
       </c>
       <c r="AL5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43735</v>
+        <v>43791</v>
       </c>
       <c r="AM5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43736</v>
+        <v>43792</v>
       </c>
       <c r="AN5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43737</v>
+        <v>43793</v>
       </c>
       <c r="AO5" s="15">
         <f ca="1">AN5+1</f>
-        <v>43738</v>
+        <v>43794</v>
       </c>
       <c r="AP5" s="16">
         <f ca="1">AO5+1</f>
-        <v>43739</v>
+        <v>43795</v>
       </c>
       <c r="AQ5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43740</v>
+        <v>43796</v>
       </c>
       <c r="AR5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43741</v>
+        <v>43797</v>
       </c>
       <c r="AS5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43742</v>
+        <v>43798</v>
       </c>
       <c r="AT5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43743</v>
+        <v>43799</v>
       </c>
       <c r="AU5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43744</v>
+        <v>43800</v>
       </c>
       <c r="AV5" s="15">
         <f ca="1">AU5+1</f>
-        <v>43745</v>
+        <v>43801</v>
       </c>
       <c r="AW5" s="16">
         <f ca="1">AV5+1</f>
-        <v>43746</v>
+        <v>43802</v>
       </c>
       <c r="AX5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43747</v>
+        <v>43803</v>
       </c>
       <c r="AY5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43748</v>
+        <v>43804</v>
       </c>
       <c r="AZ5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43749</v>
+        <v>43805</v>
       </c>
       <c r="BA5" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>43750</v>
+        <v>43806</v>
       </c>
       <c r="BB5" s="17">
         <f t="shared" ca="1" si="0"/>
-        <v>43751</v>
+        <v>43807</v>
       </c>
       <c r="BC5" s="15">
         <f ca="1">BB5+1</f>
-        <v>43752</v>
+        <v>43808</v>
       </c>
       <c r="BD5" s="16">
         <f ca="1">BC5+1</f>
-        <v>43753</v>
+        <v>43809</v>
       </c>
       <c r="BE5" s="16">
         <f t="shared" ref="BE5:BI5" ca="1" si="1">BD5+1</f>
-        <v>43754</v>
+        <v>43810</v>
       </c>
       <c r="BF5" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>43755</v>
+        <v>43811</v>
       </c>
       <c r="BG5" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>43756</v>
+        <v>43812</v>
       </c>
       <c r="BH5" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>43757</v>
+        <v>43813</v>
       </c>
       <c r="BI5" s="17">
         <f t="shared" ca="1" si="1"/>
-        <v>43758</v>
+        <v>43814</v>
       </c>
       <c r="BJ5" s="15">
         <f ca="1">BI5+1</f>
-        <v>43759</v>
+        <v>43815</v>
       </c>
       <c r="BK5" s="16">
         <f ca="1">BJ5+1</f>
-        <v>43760</v>
+        <v>43816</v>
       </c>
       <c r="BL5" s="16">
         <f t="shared" ref="BL5:BP5" ca="1" si="2">BK5+1</f>
-        <v>43761</v>
+        <v>43817</v>
       </c>
       <c r="BM5" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>43762</v>
+        <v>43818</v>
       </c>
       <c r="BN5" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>43763</v>
+        <v>43819</v>
       </c>
       <c r="BO5" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>43764</v>
+        <v>43820</v>
       </c>
       <c r="BP5" s="17">
         <f t="shared" ca="1" si="2"/>
-        <v>43765</v>
+        <v>43821</v>
       </c>
     </row>
-    <row r="6" spans="1:68" ht="25.15" customHeight="1">
+    <row r="6" spans="1:68" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -3004,7 +2999,7 @@
       <c r="BO6" s="20"/>
       <c r="BP6" s="21"/>
     </row>
-    <row r="7" spans="1:68" ht="30.95" customHeight="1" thickBot="1">
+    <row r="7" spans="1:68" ht="30.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -3258,7 +3253,7 @@
         <v>일</v>
       </c>
     </row>
-    <row r="8" spans="1:68" ht="30" hidden="1" customHeight="1">
+    <row r="8" spans="1:68" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>7</v>
       </c>
@@ -3325,7 +3320,7 @@
       <c r="BO8" s="29"/>
       <c r="BP8" s="29"/>
     </row>
-    <row r="9" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="9" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -3569,11 +3564,11 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="10" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="63"/>
       <c r="C10" s="63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="63"/>
       <c r="E10" s="63"/>
@@ -3824,11 +3819,11 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="11" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="63"/>
       <c r="C11" s="63" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D11" s="63"/>
       <c r="E11" s="63"/>
@@ -3839,7 +3834,7 @@
         <v>17</v>
       </c>
       <c r="H11" s="30" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I11" s="26">
         <v>1</v>
@@ -4079,11 +4074,11 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="12" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
       <c r="B12" s="64"/>
       <c r="C12" s="64" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
@@ -4094,7 +4089,7 @@
         <v>17</v>
       </c>
       <c r="H12" s="30" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I12" s="26">
         <v>1</v>
@@ -4334,12 +4329,12 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="13" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
       <c r="B13" s="64"/>
       <c r="C13" s="64"/>
       <c r="D13" s="64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E13" s="64"/>
       <c r="F13" s="40" t="s">
@@ -4589,12 +4584,12 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="14" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25"/>
       <c r="B14" s="64"/>
       <c r="C14" s="64"/>
       <c r="D14" s="64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="64"/>
       <c r="F14" s="40" t="s">
@@ -4844,12 +4839,12 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="15" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="63"/>
       <c r="C15" s="63"/>
       <c r="D15" s="63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="63"/>
       <c r="F15" s="40" t="s">
@@ -5099,12 +5094,12 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="16" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="63"/>
       <c r="C16" s="63"/>
       <c r="D16" s="63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E16" s="63"/>
       <c r="F16" s="40" t="s">
@@ -5186,7 +5181,7 @@
       <c r="BO16" s="31"/>
       <c r="BP16" s="31"/>
     </row>
-    <row r="17" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="17" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
       <c r="B17" s="64">
         <v>2.2000000000000002</v>
@@ -5428,11 +5423,11 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="18" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="64"/>
       <c r="C18" s="64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D18" s="64"/>
       <c r="E18" s="64"/>
@@ -5681,12 +5676,12 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="19" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
       <c r="B19" s="64"/>
       <c r="C19" s="64"/>
       <c r="D19" s="64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E19" s="64"/>
       <c r="F19" s="40" t="s">
@@ -5936,12 +5931,12 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="20" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25"/>
       <c r="B20" s="64"/>
       <c r="C20" s="64"/>
       <c r="D20" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E20" s="64"/>
       <c r="F20" s="40" t="s">
@@ -5951,7 +5946,7 @@
         <v>17</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I20" s="26">
         <v>1</v>
@@ -6191,12 +6186,12 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="21" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
       <c r="B21" s="64"/>
       <c r="C21" s="64"/>
       <c r="D21" s="64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="64"/>
       <c r="F21" s="62" t="s">
@@ -6446,22 +6441,22 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="22" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
       <c r="B22" s="64"/>
       <c r="C22" s="64"/>
       <c r="D22" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G22" s="30" t="s">
         <v>17</v>
       </c>
       <c r="H22" s="30" t="s">
-        <v>122</v>
+        <v>31</v>
       </c>
       <c r="I22" s="26">
         <v>1</v>
@@ -6701,12 +6696,12 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="23" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
       <c r="B23" s="64"/>
       <c r="C23" s="64"/>
       <c r="D23" s="64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E23" s="64"/>
       <c r="F23" s="62" t="s">
@@ -6716,7 +6711,7 @@
         <v>17</v>
       </c>
       <c r="H23" s="30" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="I23" s="26">
         <v>1</v>
@@ -6956,11 +6951,11 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="24" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25"/>
       <c r="B24" s="64"/>
       <c r="C24" s="64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D24" s="64"/>
       <c r="E24" s="64"/>
@@ -7030,7 +7025,7 @@
       <c r="BO24" s="43"/>
       <c r="BP24" s="43"/>
     </row>
-    <row r="25" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="25" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
       <c r="B25" s="64">
         <v>2.2999999999999998</v>
@@ -7283,11 +7278,11 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="26" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25"/>
       <c r="B26" s="64"/>
       <c r="C26" s="64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D26" s="64"/>
       <c r="E26" s="64"/>
@@ -7298,7 +7293,7 @@
         <v>17</v>
       </c>
       <c r="H26" s="30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I26" s="26">
         <v>1</v>
@@ -7538,12 +7533,12 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="27" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25"/>
       <c r="B27" s="64"/>
       <c r="C27" s="64"/>
       <c r="D27" s="64" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" s="64"/>
       <c r="F27" s="40" t="s">
@@ -7553,7 +7548,7 @@
         <v>17</v>
       </c>
       <c r="H27" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I27" s="26">
         <v>1</v>
@@ -7793,13 +7788,13 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="28" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25"/>
       <c r="B28" s="64"/>
       <c r="C28" s="64"/>
       <c r="D28" s="64"/>
       <c r="E28" s="64" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F28" s="40" t="s">
         <v>55</v>
@@ -7808,7 +7803,7 @@
         <v>17</v>
       </c>
       <c r="H28" s="30" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I28" s="26">
         <v>1</v>
@@ -8048,13 +8043,13 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="29" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25"/>
       <c r="B29" s="64"/>
       <c r="C29" s="64"/>
       <c r="D29" s="64"/>
       <c r="E29" s="64" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F29" s="40" t="s">
         <v>56</v>
@@ -8303,22 +8298,22 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="30" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25"/>
       <c r="B30" s="64"/>
       <c r="C30" s="64"/>
       <c r="D30" s="64"/>
       <c r="E30" s="64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F30" s="40" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G30" s="30" t="s">
         <v>17</v>
       </c>
       <c r="H30" s="30" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="I30" s="26">
         <v>1</v>
@@ -8558,13 +8553,13 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="31" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25"/>
       <c r="B31" s="64"/>
       <c r="C31" s="64"/>
       <c r="D31" s="64"/>
       <c r="E31" s="64" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F31" s="40" t="s">
         <v>58</v>
@@ -8813,22 +8808,22 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="32" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25"/>
       <c r="B32" s="64"/>
       <c r="C32" s="64"/>
       <c r="D32" s="64"/>
       <c r="E32" s="64" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G32" s="30" t="s">
         <v>17</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="I32" s="26">
         <v>1</v>
@@ -9068,13 +9063,13 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="33" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="64"/>
       <c r="C33" s="64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D33" s="64"/>
       <c r="E33" s="64"/>
@@ -9146,14 +9141,14 @@
       <c r="BO33" s="43"/>
       <c r="BP33" s="43"/>
     </row>
-    <row r="34" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1">
+    <row r="34" spans="1:68" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="64"/>
       <c r="C34" s="64"/>
       <c r="D34" s="64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E34" s="64"/>
       <c r="F34" s="40" t="s">
@@ -9403,12 +9398,12 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:68" ht="30" customHeight="1">
+    <row r="35" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="64"/>
       <c r="C35" s="64"/>
       <c r="D35" s="64"/>
       <c r="E35" s="64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F35" s="40" t="s">
         <v>63</v>
@@ -9657,12 +9652,12 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:68" ht="30" customHeight="1">
+    <row r="36" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="63"/>
       <c r="C36" s="63"/>
       <c r="D36" s="63"/>
       <c r="E36" s="63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F36" s="62" t="s">
         <v>65</v>
@@ -9911,12 +9906,12 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:68" ht="30" customHeight="1">
+    <row r="37" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="64"/>
       <c r="C37" s="64"/>
       <c r="D37" s="64"/>
       <c r="E37" s="64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F37" s="62" t="s">
         <v>66</v>
@@ -9925,7 +9920,7 @@
         <v>17</v>
       </c>
       <c r="H37" s="30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I37" s="26">
         <v>1</v>
@@ -10165,21 +10160,21 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:68" ht="30" customHeight="1">
+    <row r="38" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="64"/>
       <c r="C38" s="64"/>
       <c r="D38" s="64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E38" s="64"/>
       <c r="F38" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G38" s="30" t="s">
         <v>17</v>
       </c>
       <c r="H38" s="30" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I38" s="26">
         <v>1</v>
@@ -10419,15 +10414,15 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:68" ht="30" customHeight="1">
+    <row r="39" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="64"/>
       <c r="C39" s="64"/>
       <c r="D39" s="64"/>
       <c r="E39" s="64" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F39" s="40" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G39" s="30" t="s">
         <v>17</v>
@@ -10673,12 +10668,12 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:68" ht="30" customHeight="1">
+    <row r="40" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B40" s="64"/>
       <c r="C40" s="64"/>
       <c r="D40" s="64"/>
       <c r="E40" s="64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F40" s="40" t="s">
         <v>69</v>
@@ -10927,12 +10922,12 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:68" ht="30" customHeight="1">
+    <row r="41" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B41" s="64"/>
       <c r="C41" s="64"/>
       <c r="D41" s="64"/>
       <c r="E41" s="64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F41" s="40" t="s">
         <v>71</v>
@@ -11181,12 +11176,12 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:68" ht="30" customHeight="1">
+    <row r="42" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="64"/>
       <c r="C42" s="64"/>
       <c r="D42" s="64"/>
       <c r="E42" s="64" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F42" s="40" t="s">
         <v>73</v>
@@ -11195,7 +11190,7 @@
         <v>17</v>
       </c>
       <c r="H42" s="30" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I42" s="26">
         <v>1</v>
@@ -11435,7 +11430,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:68" ht="30" customHeight="1">
+    <row r="43" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="64">
         <v>2.4</v>
       </c>
@@ -11674,10 +11669,10 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:68" ht="30" customHeight="1">
+    <row r="44" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="64"/>
       <c r="C44" s="64" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D44" s="64"/>
       <c r="E44" s="64"/>
@@ -11928,11 +11923,11 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:68" ht="30" customHeight="1">
+    <row r="45" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="64"/>
       <c r="C45" s="64"/>
       <c r="D45" s="64" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E45" s="64"/>
       <c r="F45" s="61" t="s">
@@ -12182,11 +12177,11 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:68" ht="30" customHeight="1">
+    <row r="46" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="64"/>
       <c r="C46" s="64"/>
       <c r="D46" s="64" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E46" s="64"/>
       <c r="F46" s="61" t="s">
@@ -12436,21 +12431,21 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:68" ht="30" customHeight="1">
+    <row r="47" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="64"/>
       <c r="C47" s="64" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D47" s="64"/>
       <c r="E47" s="64"/>
       <c r="F47" s="61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G47" s="30" t="s">
         <v>17</v>
       </c>
       <c r="H47" s="30" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I47" s="26">
         <v>1</v>
@@ -12690,15 +12685,15 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:68" ht="30" customHeight="1">
+    <row r="48" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="64"/>
       <c r="C48" s="64" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D48" s="64"/>
       <c r="E48" s="64"/>
       <c r="F48" s="40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G48" s="30" t="s">
         <v>13</v>
@@ -12859,33 +12854,33 @@
         <f t="shared" ca="1" si="38"/>
         <v/>
       </c>
-      <c r="AV48" s="31" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AW48" s="31" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AX48" s="31" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AY48" s="31" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="AZ48" s="31" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BA48" s="31" t="str">
-        <f t="shared" ca="1" si="38"/>
-        <v/>
-      </c>
-      <c r="BB48" s="31" t="str">
-        <f t="shared" ca="1" si="39"/>
-        <v/>
+      <c r="AV48" s="31">
+        <f t="shared" ca="1" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="AW48" s="31">
+        <f t="shared" ca="1" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="AX48" s="31">
+        <f t="shared" ca="1" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="AY48" s="31">
+        <f t="shared" ca="1" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="AZ48" s="31">
+        <f t="shared" ca="1" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="BA48" s="31">
+        <f t="shared" ca="1" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="BB48" s="31">
+        <f t="shared" ca="1" si="39"/>
+        <v>2</v>
       </c>
       <c r="BC48" s="31" t="str">
         <f t="shared" ca="1" si="39"/>
@@ -12944,7 +12939,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:61" ht="30" customHeight="1" thickBot="1">
+    <row r="49" spans="2:61" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="64"/>
       <c r="C49" s="64"/>
       <c r="D49" s="64"/>
@@ -13006,12 +13001,12 @@
       <c r="BH49" s="33"/>
       <c r="BI49" s="33"/>
     </row>
-    <row r="50" spans="2:61" ht="30" customHeight="1">
+    <row r="50" spans="2:61" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H50" s="34"/>
       <c r="K50" s="36"/>
       <c r="L50" s="37"/>
     </row>
-    <row r="51" spans="2:61" ht="30" customHeight="1">
+    <row r="51" spans="2:61" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H51" s="38"/>
     </row>
   </sheetData>
@@ -13132,10 +13127,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="스크롤 증가값" prompt="이 숫자를 변경하면 Gantt 차트 보기가 스크롤됩니다." sqref="J4">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="스크롤 증가값" prompt="이 숫자를 변경하면 Gantt 차트 보기가 스크롤됩니다." sqref="J4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G16 G44:G48 G18:G23 G25:G42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G10:G16 G44:G48 G18:G23 G25:G42" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"목표,중요 시점,정상 진행 중, 낮은 위험 수준, 중간 위험 수준, 높은 위험 수준"</formula1>
     </dataValidation>
   </dataValidations>
